--- a/Другое/2026/Доходы-Расходы.xlsx
+++ b/Другое/2026/Доходы-Расходы.xlsx
@@ -48,87 +48,6 @@
           </rPr>
           <t xml:space="preserve">
 Долг маме
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Электричество
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Вода
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Газ
 </t>
         </r>
       </text>
@@ -291,6 +210,87 @@
         </r>
       </text>
     </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Электричество
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Вода
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Газ
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -498,7 +498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +570,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,12 +695,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,9 +702,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,9 +710,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,9 +729,6 @@
     <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -745,14 +737,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1051,7 +1064,7 @@
       <pane xSplit="2" ySplit="27" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,31 +1075,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="60.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:45" ht="45" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1188,42 +1201,47 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="9">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="7">
+        <f>183+2168</f>
+        <v>2351</v>
+      </c>
+      <c r="F3" s="7">
         <v>3131</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
+      <c r="G3" s="20"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
         <v>450</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <v>40</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7">
         <v>14418</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7">
         <v>5000</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8">
         <f t="shared" ref="U3:U26" si="0">SUM(C3:T3)</f>
-        <v>22999</v>
-      </c>
-      <c r="V3" s="11">
+        <v>25390</v>
+      </c>
+      <c r="V3" s="9">
         <v>53739.4</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="32">
         <f>V27-U27</f>
-        <v>-34537.599999999999</v>
+        <v>-33300.6</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1233,34 +1251,33 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="18">
-        <v>500</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="28">
+        <f>131+247</f>
+        <v>378</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="4">
@@ -1269,34 +1286,37 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24">
-        <v>1500</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="24">
-        <v>2000</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="12"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="29">
+        <v>1110</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7">
+        <v>840</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
+        <f>197+259</f>
+        <v>456</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8">
+        <f t="shared" si="0"/>
+        <v>2406</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="32"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="5">
@@ -1305,38 +1325,37 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18">
-        <v>6908</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="18">
-        <v>2000</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="18">
-        <v>500</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="18">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="28">
+        <v>1006</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="28">
+        <f>221+171</f>
+        <v>392</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="14">
         <v>7500</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14">
-        <f t="shared" si="0"/>
-        <v>16908</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="12"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11">
+        <f t="shared" si="0"/>
+        <v>8898</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="32"/>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="4">
@@ -1345,32 +1364,36 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="24">
-        <v>1000</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="10">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="29">
+        <v>1819</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
+        <v>224</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <v>1055</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8">
+        <f t="shared" si="0"/>
+        <v>3098</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="5">
@@ -1379,34 +1402,32 @@
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="18">
-        <v>500</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="18">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="14">
         <v>1000</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="V8" s="15"/>
-      <c r="W8" s="12"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="4">
@@ -1415,34 +1436,34 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>6908</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="24">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="20">
         <v>700</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8">
         <f t="shared" si="0"/>
         <v>7608</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="5">
@@ -1451,38 +1472,38 @@
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
         <v>4873</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="18">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14">
         <v>500</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="18">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="14">
         <v>700</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="14">
         <v>2500</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11">
         <f t="shared" si="0"/>
         <v>8573</v>
       </c>
-      <c r="V10" s="15"/>
-      <c r="W10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="4">
@@ -1491,32 +1512,32 @@
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="24">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="20">
         <v>1000</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="10">
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="32"/>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="5">
@@ -1525,34 +1546,36 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>6908</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1500</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14">
-        <f t="shared" si="0"/>
-        <v>8408</v>
-      </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="14">
+        <v>2000</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11">
+        <f t="shared" si="0"/>
+        <v>10408</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="32"/>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="4">
@@ -1561,32 +1584,34 @@
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="24">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="20">
+        <v>2000</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="20">
         <v>500</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="10">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="32"/>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="5">
@@ -1595,32 +1620,34 @@
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="18">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="14">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="14">
         <v>1000</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="V14" s="15"/>
-      <c r="W14" s="12"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="32"/>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="4">
@@ -1629,34 +1656,34 @@
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <v>6908</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="24">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="20">
         <v>500</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="10">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8">
         <f t="shared" si="0"/>
         <v>7408</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="32"/>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="5">
@@ -1665,30 +1692,30 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="32"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="4">
@@ -1697,66 +1724,66 @@
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20">
         <v>4873</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="24">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="20">
         <v>500</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="10">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="8">
         <f t="shared" si="0"/>
         <v>5373</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="32"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>20</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="22">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="12"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="32"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="4">
@@ -1765,30 +1792,30 @@
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="10">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="11"/>
-      <c r="W19" s="12"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="32"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="5">
@@ -1797,30 +1824,30 @@
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="14">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="32"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="4">
@@ -1829,30 +1856,30 @@
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="10">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="32"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="5">
@@ -1861,30 +1888,30 @@
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="14">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="15"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="32"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="4">
@@ -1893,30 +1920,30 @@
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="10">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="12"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="32"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="5">
@@ -1925,30 +1952,30 @@
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="14">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="15"/>
-      <c r="W24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="32"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="4">
@@ -1957,30 +1984,30 @@
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="10">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V25" s="11"/>
-      <c r="W25" s="12"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="32"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="5">
@@ -1989,117 +2016,117 @@
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="14">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V26" s="15"/>
-      <c r="W26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="16">
-        <f>SUM(C3:C26)</f>
-        <v>27632</v>
-      </c>
-      <c r="D27" s="16">
-        <f>SUM(D3:D26)</f>
+      <c r="B27" s="30"/>
+      <c r="C27" s="13">
+        <f t="shared" ref="C27:V27" si="1">SUM(C3:C26)</f>
+        <v>20724</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
         <v>9746</v>
       </c>
-      <c r="E27" s="16">
-        <f>SUM(E3:E26)</f>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>5176</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="1"/>
+        <v>4241</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="1"/>
+        <v>6450</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="16">
-        <f>SUM(F3:F26)</f>
-        <v>3131</v>
-      </c>
-      <c r="G27" s="16">
-        <f>SUM(G3:G26)</f>
-        <v>3000</v>
-      </c>
-      <c r="H27" s="16">
-        <f>SUM(H3:H26)</f>
+      <c r="K27" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="16">
-        <f>SUM(I3:I26)</f>
-        <v>6450</v>
-      </c>
-      <c r="J27" s="16">
-        <f>SUM(J3:J26)</f>
+      <c r="L27" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="16">
-        <f>SUM(K3:K26)</f>
+      <c r="M27" s="13">
+        <f t="shared" si="1"/>
+        <v>3490</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="1"/>
+        <v>14418</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="1"/>
+        <v>8555</v>
+      </c>
+      <c r="S27" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="16">
-        <f>SUM(L3:L26)</f>
+      <c r="T27" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="16">
-        <f>SUM(M3:M26)</f>
-        <v>3500</v>
-      </c>
-      <c r="N27" s="16">
-        <f>SUM(N3:N26)</f>
-        <v>2000</v>
-      </c>
-      <c r="O27" s="16">
-        <f>SUM(O3:O26)</f>
-        <v>7500</v>
-      </c>
-      <c r="P27" s="16">
-        <f>SUM(P3:P26)</f>
-        <v>14418</v>
-      </c>
-      <c r="Q27" s="16">
-        <f>SUM(Q3:Q26)</f>
-        <v>3400</v>
-      </c>
-      <c r="R27" s="16">
-        <f>SUM(R3:R26)</f>
-        <v>7500</v>
-      </c>
-      <c r="S27" s="16">
-        <f>SUM(S3:S26)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="16">
-        <f>SUM(T3:T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
-        <f>SUM(U3:U26)</f>
-        <v>88277</v>
-      </c>
-      <c r="V27" s="16">
-        <f>SUM(V3:V26)</f>
+      <c r="U27" s="13">
+        <f t="shared" si="1"/>
+        <v>87040</v>
+      </c>
+      <c r="V27" s="13">
+        <f t="shared" si="1"/>
         <v>53739.4</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="33"/>
     </row>
     <row r="31" spans="1:23">
       <c r="B31" s="6"/>
@@ -2133,34 +2160,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="22.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="29"/>
-    <col min="8" max="8" width="18.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="22.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="24"/>
+    <col min="8" max="8" width="18.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -2195,7 +2222,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="28">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2204,14 +2231,14 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="21">
         <v>90</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="21">
         <f>C3*D3</f>
         <v>90</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="23">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -2220,16 +2247,16 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="21">
         <v>318</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="21">
         <f>I3*J3</f>
         <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="28">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2238,32 +2265,32 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <v>90</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E22" si="0">C4*D4</f>
         <v>90</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="23">
         <v>2</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="21">
         <v>255</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="21">
         <f>I4*J4</f>
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="28">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2272,14 +2299,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>90</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="23">
         <v>3</v>
       </c>
       <c r="H5" t="s">
@@ -2288,16 +2315,16 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="21">
         <v>1200</v>
       </c>
-      <c r="K5" s="26">
-        <f t="shared" ref="K5:K9" si="1">I5*J5</f>
+      <c r="K5" s="21">
+        <f t="shared" ref="K5:K7" si="1">I5*J5</f>
         <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="28">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2306,14 +2333,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>200</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="23">
         <v>4</v>
       </c>
       <c r="H6" t="s">
@@ -2322,16 +2349,16 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="21">
         <v>1100</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="21">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="28">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2340,14 +2367,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>200</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="23">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -2356,16 +2383,16 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="21">
         <v>2000</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="21">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="28">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2374,26 +2401,26 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <v>193</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="31">
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="25">
         <f>SUM(K3:K7)</f>
         <v>4873</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="28">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2402,19 +2429,19 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="21">
         <v>90</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2423,19 +2450,19 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <v>350</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="28">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2444,19 +2471,19 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="21">
         <v>250</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="G11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -2465,19 +2492,19 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="21">
         <v>500</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -2486,19 +2513,19 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="21">
         <v>150</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="G13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2507,19 +2534,19 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="21">
         <v>300</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="G14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="28">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2528,19 +2555,19 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="21">
         <v>350</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="28">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -2549,19 +2576,19 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="21">
         <v>350</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="G16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="28">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2570,19 +2597,19 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="21">
         <v>250</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="G17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="28">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -2591,16 +2618,16 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="21">
         <v>200</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="28">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -2609,16 +2636,16 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="21">
         <v>210</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="21">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="28">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -2627,16 +2654,16 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="21">
         <v>255</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="28">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -2645,16 +2672,16 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="21">
         <v>350</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="28">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -2663,16 +2690,16 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="21">
         <v>240</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="28">
+      <c r="A23" s="23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
@@ -2681,22 +2708,22 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="21">
         <v>500</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="21">
         <f>C23*D23</f>
         <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="25">
         <f>SUM(E3:E23)</f>
         <v>6908</v>
       </c>

--- a/Другое/2026/Доходы-Расходы.xlsx
+++ b/Другое/2026/Доходы-Расходы.xlsx
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,139 +74,8 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Подарок на 14 февраля
+К 14 февраля
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Интернет</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Яндекс</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Связь</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Подарок Еве на ДР
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-ВПН</t>
         </r>
       </text>
     </comment>
@@ -287,6 +156,33 @@
           </rPr>
           <t xml:space="preserve">
 Газ
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Яндекс Плюс
 </t>
         </r>
       </text>
@@ -1050,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1064,7 +960,7 @@
       <pane xSplit="2" ySplit="27" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1241,7 +1137,7 @@
       </c>
       <c r="W3" s="32">
         <f>V27-U27</f>
-        <v>-33300.6</v>
+        <v>-12655.05000000001</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1342,9 +1238,7 @@
         <v>392</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="14">
-        <v>7500</v>
-      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -1352,7 +1246,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="11">
         <f t="shared" si="0"/>
-        <v>8898</v>
+        <v>1398</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="32"/>
@@ -1404,27 +1298,31 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="10">
+        <v>1266.9000000000001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1345</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="10">
+        <v>172</v>
+      </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="14">
-        <v>1000</v>
-      </c>
+      <c r="Q8" s="14"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="11">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2783.9</v>
       </c>
       <c r="V8" s="12"/>
       <c r="W8" s="32"/>
@@ -1436,11 +1334,11 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
-        <v>6908</v>
-      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="7">
+        <v>1403.84</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="7"/>
@@ -1452,15 +1350,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="20">
-        <v>700</v>
-      </c>
+      <c r="Q9" s="20"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="8">
         <f t="shared" si="0"/>
-        <v>7608</v>
+        <v>1403.84</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="32"/>
@@ -1473,34 +1369,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14">
-        <v>4873</v>
-      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="10">
+        <v>959</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="14">
-        <v>500</v>
-      </c>
+      <c r="M10" s="14"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="14">
-        <v>700</v>
-      </c>
-      <c r="R10" s="14">
-        <v>2500</v>
-      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="11">
         <f t="shared" si="0"/>
-        <v>8573</v>
+        <v>959</v>
       </c>
       <c r="V10" s="12"/>
       <c r="W10" s="32"/>
@@ -1514,9 +1404,15 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="7">
+        <f>342.99+1260.98</f>
+        <v>1603.97</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="7">
+        <f>3980+430</f>
+        <v>4410</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1524,17 +1420,18 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7">
+        <f>773+2000+1767</f>
+        <v>4540</v>
+      </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="20">
-        <v>1000</v>
-      </c>
+      <c r="Q11" s="20"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="8">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10553.970000000001</v>
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="32"/>
@@ -1546,15 +1443,17 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14">
-        <v>6908</v>
-      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
-        <v>1500</v>
-      </c>
+      <c r="E12" s="10">
+        <f>1260.98+678.97</f>
+        <v>1939.95</v>
+      </c>
+      <c r="F12" s="10">
+        <f>4500+149</f>
+        <v>4649</v>
+      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="10"/>
       <c r="I12" s="14">
         <v>2000</v>
@@ -1562,9 +1461,15 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <f>543+421</f>
+        <v>964</v>
+      </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="10">
+        <f>497</f>
+        <v>497</v>
+      </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1572,7 +1477,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="11">
         <f t="shared" si="0"/>
-        <v>10408</v>
+        <v>10049.950000000001</v>
       </c>
       <c r="V12" s="12"/>
       <c r="W12" s="32"/>
@@ -1586,7 +1491,10 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="7">
+        <f>1569.79</f>
+        <v>1569.79</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="7"/>
@@ -1596,8 +1504,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="20">
-        <v>500</v>
+      <c r="M13" s="7">
+        <v>135</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1608,7 +1516,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="8">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>3704.79</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="32"/>
@@ -1622,7 +1530,9 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="10">
+        <v>1170</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
@@ -1633,9 +1543,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="14">
-        <v>1000</v>
-      </c>
+      <c r="N14" s="14"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -1644,7 +1552,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="11">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>3170</v>
       </c>
       <c r="V14" s="12"/>
       <c r="W14" s="32"/>
@@ -1656,9 +1564,7 @@
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="20">
-        <v>6908</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -1668,9 +1574,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="20">
-        <v>500</v>
-      </c>
+      <c r="M15" s="20"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1680,7 +1584,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="8">
         <f t="shared" si="0"/>
-        <v>7408</v>
+        <v>0</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="32"/>
@@ -1694,7 +1598,9 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="10">
+        <v>200</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="10"/>
@@ -1702,17 +1608,21 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="10">
+        <v>400</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="10">
+        <v>499</v>
+      </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="32"/>
@@ -1725,9 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="20">
-        <v>4873</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
@@ -1736,9 +1644,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="20">
-        <v>500</v>
-      </c>
+      <c r="M17" s="20"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1748,7 +1654,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="8">
         <f t="shared" si="0"/>
-        <v>5373</v>
+        <v>0</v>
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="32"/>
@@ -2048,23 +1954,23 @@
       <c r="B27" s="30"/>
       <c r="C27" s="13">
         <f t="shared" ref="C27:V27" si="1">SUM(C3:C26)</f>
-        <v>20724</v>
+        <v>0</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>9746</v>
+        <v>0</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>5176</v>
+        <v>14330.45</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="1"/>
-        <v>4241</v>
+        <v>11194</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>4410</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="1"/>
@@ -2088,15 +1994,15 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" si="1"/>
-        <v>3490</v>
+        <v>3161</v>
       </c>
       <c r="N27" s="13">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O27" s="13">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>5037</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="1"/>
@@ -2104,11 +2010,11 @@
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="1"/>
-        <v>3400</v>
+        <v>499</v>
       </c>
       <c r="R27" s="13">
         <f t="shared" si="1"/>
-        <v>8555</v>
+        <v>6055</v>
       </c>
       <c r="S27" s="13">
         <f t="shared" si="1"/>
@@ -2120,7 +2026,7 @@
       </c>
       <c r="U27" s="13">
         <f t="shared" si="1"/>
-        <v>87040</v>
+        <v>66394.450000000012</v>
       </c>
       <c r="V27" s="13">
         <f t="shared" si="1"/>

--- a/Другое/2026/Доходы-Расходы.xlsx
+++ b/Другое/2026/Доходы-Расходы.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Февраль 2026" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Февраль 2026" sheetId="3" r:id="rId1"/>
+    <sheet name="Март 2026" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="R3" authorId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="O11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="Q16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,12 +102,22 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Электричество
+Яндекс Плюс
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,12 +139,12 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Вода
+Долг маме
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment ref="O11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,12 +166,12 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Газ
+К 14 февраля
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0">
+    <comment ref="Q16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>Число</t>
   </si>
@@ -381,20 +392,20 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Базовая корзина</t>
-  </si>
-  <si>
-    <t>Доп. корзина</t>
+    <t>Вкус Вилл</t>
+  </si>
+  <si>
+    <t>Алкоголь</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +486,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,18 +547,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -571,11 +615,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,19 +668,6 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,12 +678,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,12 +696,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,6 +704,47 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,58 +1027,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="27" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="31" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="20.7109375" style="2" customWidth="1"/>
     <col min="24" max="35" width="12.7109375" style="2" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="60.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:45" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-    </row>
-    <row r="2" spans="1:45" ht="45" customHeight="1">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+    </row>
+    <row r="2" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1005,19 +1086,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
@@ -1090,57 +1171,54 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45">
-      <c r="A3" s="4">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="7">
+      <c r="C3" s="41">
         <f>183+2168</f>
         <v>2351</v>
       </c>
-      <c r="F3" s="7">
+      <c r="D3" s="41">
         <v>3131</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41">
         <v>450</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41">
         <v>40</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41">
         <v>14418</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41">
         <v>5000</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8">
-        <f t="shared" ref="U3:U26" si="0">SUM(C3:T3)</f>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42">
+        <f>SUM(C3:T3)</f>
         <v>25390</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="43">
         <v>53739.4</v>
       </c>
-      <c r="W3" s="32">
-        <f>V27-U27</f>
-        <v>-12655.05000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+      <c r="W3" s="30"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -1157,7 +1235,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="28">
+      <c r="M4" s="23">
         <f>131+247</f>
         <v>378</v>
       </c>
@@ -1169,26 +1247,26 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:T4)</f>
         <v>378</v>
       </c>
       <c r="V4" s="12"/>
-      <c r="W4" s="32"/>
-    </row>
-    <row r="5" spans="1:45">
+      <c r="W4" s="30"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="29">
+      <c r="C5" s="15"/>
+      <c r="D5" s="24">
         <v>1110</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="7">
         <v>840</v>
       </c>
@@ -1208,24 +1286,24 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:T5)</f>
         <v>2406</v>
       </c>
       <c r="V5" s="9"/>
-      <c r="W5" s="32"/>
-    </row>
-    <row r="6" spans="1:45">
+      <c r="W5" s="30"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="23">
+        <v>1006</v>
+      </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="28">
-        <v>1006</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="10"/>
@@ -1233,7 +1311,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="28">
+      <c r="M6" s="23">
         <f>221+171</f>
         <v>392</v>
       </c>
@@ -1245,26 +1323,26 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U6:U17" si="0">SUM(C6:T6)</f>
         <v>1398</v>
       </c>
       <c r="V6" s="12"/>
-      <c r="W6" s="32"/>
-    </row>
-    <row r="7" spans="1:45">
+      <c r="W6" s="30"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="29">
+      <c r="C7" s="24">
         <v>1819</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1273,7 +1351,7 @@
       <c r="M7" s="7">
         <v>224</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1287,23 +1365,23 @@
         <v>3098</v>
       </c>
       <c r="V7" s="9"/>
-      <c r="W7" s="32"/>
-    </row>
-    <row r="8" spans="1:45">
+      <c r="W7" s="30"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="10">
+      <c r="C8" s="10">
         <v>1266.9000000000001</v>
       </c>
-      <c r="F8" s="10">
+      <c r="D8" s="10">
         <v>1345</v>
       </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1325,22 +1403,22 @@
         <v>2783.9</v>
       </c>
       <c r="V8" s="12"/>
-      <c r="W8" s="32"/>
-    </row>
-    <row r="9" spans="1:45">
+      <c r="W8" s="30"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="7">
+      <c r="C9" s="7">
         <v>1403.84</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1350,7 +1428,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1359,9 +1437,9 @@
         <v>1403.84</v>
       </c>
       <c r="V9" s="9"/>
-      <c r="W9" s="32"/>
-    </row>
-    <row r="10" spans="1:45">
+      <c r="W9" s="30"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>12</v>
       </c>
@@ -1369,11 +1447,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="10">
+      <c r="D10" s="10">
         <v>959</v>
       </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1393,26 +1471,26 @@
         <v>959</v>
       </c>
       <c r="V10" s="12"/>
-      <c r="W10" s="32"/>
-    </row>
-    <row r="11" spans="1:45">
+      <c r="W10" s="30"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="7">
+      <c r="C11" s="7">
         <f>342.99+1260.98</f>
         <v>1603.97</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="7">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7">
         <f>3980+430</f>
         <v>4410</v>
       </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1425,7 +1503,7 @@
         <v>4540</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="20"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1434,30 +1512,28 @@
         <v>10553.970000000001</v>
       </c>
       <c r="V11" s="9"/>
-      <c r="W11" s="32"/>
-    </row>
-    <row r="12" spans="1:45">
+      <c r="W11" s="30"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="10">
+      <c r="C12" s="10">
         <f>1260.98+678.97</f>
         <v>1939.95</v>
       </c>
-      <c r="F12" s="10">
+      <c r="D12" s="10">
         <f>4500+149</f>
         <v>4649</v>
       </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="14">
-        <v>2000</v>
-      </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1477,30 +1553,28 @@
       <c r="T12" s="10"/>
       <c r="U12" s="11">
         <f t="shared" si="0"/>
-        <v>10049.950000000001</v>
+        <v>8049.95</v>
       </c>
       <c r="V12" s="12"/>
-      <c r="W12" s="32"/>
-    </row>
-    <row r="13" spans="1:45">
+      <c r="W12" s="30"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="7">
+      <c r="C13" s="7">
         <f>1569.79</f>
         <v>1569.79</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="20">
-        <v>2000</v>
-      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1516,29 +1590,27 @@
       <c r="T13" s="7"/>
       <c r="U13" s="8">
         <f t="shared" si="0"/>
-        <v>3704.79</v>
+        <v>1704.79</v>
       </c>
       <c r="V13" s="9"/>
-      <c r="W13" s="32"/>
-    </row>
-    <row r="14" spans="1:45">
+      <c r="W13" s="30"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="10">
+        <v>1170</v>
+      </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="10">
-        <v>1170</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="14">
-        <v>2000</v>
-      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1552,29 +1624,29 @@
       <c r="T14" s="10"/>
       <c r="U14" s="11">
         <f t="shared" si="0"/>
-        <v>3170</v>
+        <v>1170</v>
       </c>
       <c r="V14" s="12"/>
-      <c r="W14" s="32"/>
-    </row>
-    <row r="15" spans="1:45">
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="20"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1587,20 +1659,20 @@
         <v>0</v>
       </c>
       <c r="V15" s="9"/>
-      <c r="W15" s="32"/>
-    </row>
-    <row r="16" spans="1:45">
+      <c r="W15" s="30"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="10">
+        <v>200</v>
+      </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="10">
-        <v>200</v>
-      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="10"/>
@@ -1625,26 +1697,26 @@
         <v>1099</v>
       </c>
       <c r="V16" s="12"/>
-      <c r="W16" s="32"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="W16" s="30"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1657,41 +1729,52 @@
         <v>0</v>
       </c>
       <c r="V17" s="9"/>
-      <c r="W17" s="32"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="15">
+      <c r="W17" s="30">
+        <f>V3-SUM(U3:U16)</f>
+        <v>-6655.0499999999956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>20</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="32"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41">
+        <v>1300</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41">
+        <f>1587+618</f>
+        <v>2205</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42">
+        <f>SUM(C18:T18)</f>
+        <v>3505</v>
+      </c>
+      <c r="V18" s="43">
+        <f>30304+16451</f>
+        <v>46755</v>
+      </c>
+      <c r="W18" s="44"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>21</v>
       </c>
@@ -1717,13 +1800,13 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:T19)</f>
         <v>0</v>
       </c>
       <c r="V19" s="9"/>
-      <c r="W19" s="32"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="W19" s="30"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>22</v>
       </c>
@@ -1749,13 +1832,13 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U20:U30" si="1">SUM(C20:T20)</f>
         <v>0</v>
       </c>
       <c r="V20" s="12"/>
-      <c r="W20" s="32"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="W20" s="30"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>23</v>
       </c>
@@ -1781,13 +1864,13 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V21" s="9"/>
-      <c r="W21" s="32"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="W21" s="30"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>24</v>
       </c>
@@ -1813,13 +1896,13 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V22" s="12"/>
-      <c r="W22" s="32"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="W22" s="30"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -1845,13 +1928,13 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="9"/>
-      <c r="W23" s="32"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="W23" s="30"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>26</v>
       </c>
@@ -1877,13 +1960,13 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="12"/>
-      <c r="W24" s="32"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="W24" s="30"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -1909,13 +1992,13 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25" s="9"/>
-      <c r="W25" s="32"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="W25" s="30"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>28</v>
       </c>
@@ -1941,114 +2024,258 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="12"/>
-      <c r="W26" s="32"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="13">
-        <f t="shared" ref="C27:V27" si="1">SUM(C3:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="13">
-        <f t="shared" si="1"/>
-        <v>14330.45</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="1"/>
-        <v>11194</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" si="1"/>
-        <v>4410</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
-      <c r="I27" s="13">
-        <f t="shared" si="1"/>
-        <v>6450</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="V26" s="12"/>
+      <c r="W26" s="30"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="13">
+      <c r="V27" s="12"/>
+      <c r="W27" s="30"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="13">
+      <c r="V28" s="12"/>
+      <c r="W28" s="30"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="13">
+      <c r="V29" s="12"/>
+      <c r="W29" s="30"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D30" s="14">
+        <v>12000</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="14">
+        <v>4200</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="14">
+        <v>8000</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="14">
+        <v>3500</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="14">
+        <v>2000</v>
+      </c>
+      <c r="R30" s="14">
+        <v>5000</v>
+      </c>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="11">
         <f t="shared" si="1"/>
-        <v>3161</v>
-      </c>
-      <c r="N27" s="13">
-        <f t="shared" si="1"/>
+        <v>49700</v>
+      </c>
+      <c r="V30" s="12"/>
+      <c r="W30" s="30">
+        <f>V18-SUM(U18:U30)</f>
+        <v>-6450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="13">
+        <f>SUM(C3:C30)</f>
+        <v>29330.45</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" ref="D31:T31" si="2">SUM(D3:D30)</f>
+        <v>23194</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="13">
-        <f t="shared" si="1"/>
+      <c r="F31" s="13">
+        <f t="shared" si="2"/>
+        <v>8610</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="2"/>
+        <v>2140</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="2"/>
+        <v>8450</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="2"/>
+        <v>8866</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="2"/>
         <v>5037</v>
       </c>
-      <c r="P27" s="13">
-        <f t="shared" si="1"/>
+      <c r="P31" s="13">
+        <f t="shared" si="2"/>
         <v>14418</v>
       </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="1"/>
-        <v>499</v>
-      </c>
-      <c r="R27" s="13">
-        <f t="shared" si="1"/>
-        <v>6055</v>
-      </c>
-      <c r="S27" s="13">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="13">
+        <f t="shared" si="2"/>
+        <v>2499</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="2"/>
+        <v>11055</v>
+      </c>
+      <c r="S31" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T27" s="13">
-        <f t="shared" si="1"/>
+      <c r="T31" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="13">
-        <f t="shared" si="1"/>
-        <v>66394.450000000012</v>
-      </c>
-      <c r="V27" s="13">
-        <f t="shared" si="1"/>
-        <v>53739.4</v>
-      </c>
-      <c r="W27" s="33"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="U31" s="13">
+        <f t="shared" ref="C31:V31" si="3">SUM(U3:U26)</f>
+        <v>63899.45</v>
+      </c>
+      <c r="V31" s="13">
+        <f t="shared" si="3"/>
+        <v>100494.39999999999</v>
+      </c>
+      <c r="W31" s="31"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A27:B27"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:W1"/>
-    <mergeCell ref="W3:W27"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2057,45 +2284,1205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS34"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="30" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="23" width="20.7109375" style="2" customWidth="1"/>
+    <col min="24" max="35" width="12.7109375" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+    </row>
+    <row r="2" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35">
+        <v>3131</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35">
+        <v>450</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35">
+        <v>40</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35">
+        <v>14418</v>
+      </c>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35">
+        <v>5000</v>
+      </c>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35">
+        <f>SUM(C3:T3)</f>
+        <v>23039</v>
+      </c>
+      <c r="V3" s="36">
+        <v>53739.4</v>
+      </c>
+      <c r="W3" s="37">
+        <f>V30-U30</f>
+        <v>-1479.0500000000029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>6</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35">
+        <f>131+247</f>
+        <v>378</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35">
+        <f>SUM(C4:T4)</f>
+        <v>378</v>
+      </c>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35">
+        <v>1110</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35">
+        <v>840</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35">
+        <f>197+259</f>
+        <v>456</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35">
+        <f>SUM(C5:T5)</f>
+        <v>2406</v>
+      </c>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35">
+        <f>221+171</f>
+        <v>392</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35">
+        <f>SUM(C6:T6)</f>
+        <v>392</v>
+      </c>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>9</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35">
+        <v>224</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35">
+        <v>1055</v>
+      </c>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35">
+        <f>SUM(C7:T7)</f>
+        <v>1279</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>10</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1266.9000000000001</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
+        <v>1345</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35">
+        <v>172</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35">
+        <f>SUM(C8:T8)</f>
+        <v>2783.9</v>
+      </c>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>11</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1403.84</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35">
+        <f>SUM(C9:T9)</f>
+        <v>1403.84</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>12</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35">
+        <v>959</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35">
+        <f>SUM(C10:T10)</f>
+        <v>959</v>
+      </c>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>13</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="35">
+        <f>342.99+1260.98</f>
+        <v>1603.97</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35">
+        <f>3980+430</f>
+        <v>4410</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35">
+        <f>773+2000+1767</f>
+        <v>4540</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35">
+        <f>SUM(C11:T11)</f>
+        <v>10553.970000000001</v>
+      </c>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>14</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35">
+        <f>1260.98+678.97</f>
+        <v>1939.95</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35">
+        <f>4500+149</f>
+        <v>4649</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35">
+        <f>543+421</f>
+        <v>964</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35">
+        <f>497</f>
+        <v>497</v>
+      </c>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35">
+        <f>SUM(C12:T12)</f>
+        <v>8049.95</v>
+      </c>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>15</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="35">
+        <f>1569.79</f>
+        <v>1569.79</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35">
+        <v>135</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35">
+        <f>SUM(C13:T13)</f>
+        <v>1704.79</v>
+      </c>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>16</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1170</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35">
+        <f>SUM(C14:T14)</f>
+        <v>1170</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>17</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35">
+        <f>SUM(C15:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>18</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="35">
+        <v>200</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35">
+        <v>400</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35">
+        <v>499</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35">
+        <f>SUM(C16:T16)</f>
+        <v>1099</v>
+      </c>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>19</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35">
+        <f>SUM(C17:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>20</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35">
+        <f>SUM(C18:T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>21</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35">
+        <f>SUM(C19:T19)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="36"/>
+      <c r="W19" s="37"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>22</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35">
+        <f>SUM(C20:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>23</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35">
+        <f>SUM(C21:T21)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>24</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35">
+        <f>SUM(C22:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="36"/>
+      <c r="W22" s="37"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>25</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35">
+        <f>SUM(C23:T23)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="36"/>
+      <c r="W23" s="37"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>26</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35">
+        <f>SUM(C24:T24)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>27</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35">
+        <f>SUM(C25:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>28</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35">
+        <f>SUM(C26:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="37"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="36">
+        <f t="shared" ref="C30:V30" si="0">SUM(C3:C26)</f>
+        <v>9154.4500000000007</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36">
+        <f t="shared" si="0"/>
+        <v>11194</v>
+      </c>
+      <c r="F30" s="36">
+        <f t="shared" si="0"/>
+        <v>4410</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="I30" s="36">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="36">
+        <f t="shared" si="0"/>
+        <v>3161</v>
+      </c>
+      <c r="N30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" si="0"/>
+        <v>5037</v>
+      </c>
+      <c r="P30" s="36">
+        <f t="shared" si="0"/>
+        <v>14418</v>
+      </c>
+      <c r="Q30" s="36">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="R30" s="36">
+        <f t="shared" si="0"/>
+        <v>6055</v>
+      </c>
+      <c r="S30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="36">
+        <f t="shared" si="0"/>
+        <v>55218.450000000004</v>
+      </c>
+      <c r="V30" s="36">
+        <f t="shared" si="0"/>
+        <v>53739.4</v>
+      </c>
+      <c r="W30" s="37"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="W3:W30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="22.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="24"/>
-    <col min="8" max="8" width="18.42578125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="22.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="19"/>
+    <col min="8" max="8" width="18.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2127,8 +3514,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="23">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2137,14 +3524,14 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="16">
         <v>90</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="16">
         <f>C3*D3</f>
         <v>90</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -2153,16 +3540,16 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="16">
         <v>318</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="16">
         <f>I3*J3</f>
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="23">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2171,32 +3558,32 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="16">
         <v>90</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <f t="shared" ref="E4:E22" si="0">C4*D4</f>
         <v>90</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>43</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="16">
         <v>255</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="16">
         <f>I4*J4</f>
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="23">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2205,14 +3592,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>90</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="18">
         <v>3</v>
       </c>
       <c r="H5" t="s">
@@ -2221,16 +3608,16 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="16">
         <v>1200</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="16">
         <f t="shared" ref="K5:K7" si="1">I5*J5</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="23">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2239,14 +3626,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>200</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="18">
         <v>4</v>
       </c>
       <c r="H6" t="s">
@@ -2255,16 +3642,16 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="16">
         <v>1100</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="16">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="23">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2273,14 +3660,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>200</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="18">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -2289,16 +3676,16 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="16">
         <v>2000</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="16">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="23">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2307,26 +3694,26 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>193</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="25">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="20">
         <f>SUM(K3:K7)</f>
         <v>4873</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="23">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2335,19 +3722,19 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>90</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="23">
+      <c r="G9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2356,19 +3743,19 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>350</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="23">
+      <c r="G10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2377,19 +3764,19 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>250</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="23">
+      <c r="G11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -2398,19 +3785,19 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="16">
         <v>500</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="23">
+      <c r="G12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -2419,19 +3806,19 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <v>150</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="23">
+      <c r="G13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2440,19 +3827,19 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <v>300</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="23">
+      <c r="G14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2461,19 +3848,19 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="16">
         <v>350</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="16">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="23">
+      <c r="G15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -2482,19 +3869,19 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="16">
         <v>350</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="16">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="23">
+      <c r="G16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2503,19 +3890,19 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="16">
         <v>250</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="23">
+      <c r="G17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -2524,16 +3911,16 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <v>200</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="23">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -2542,16 +3929,16 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="16">
         <v>210</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="16">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="23">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -2560,16 +3947,16 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>255</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="23">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -2578,16 +3965,16 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>350</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="23">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -2596,16 +3983,16 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="16">
         <v>240</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="16">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>15</v>
       </c>
       <c r="B23" t="s">
@@ -2614,22 +4001,22 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="16">
         <v>500</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="16">
         <f>C23*D23</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="20">
         <f>SUM(E3:E23)</f>
         <v>6908</v>
       </c>
